--- a/excelPourBD/t_student.xlsx
+++ b/excelPourBD/t_student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Dépôt\depot\excelPourBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Depot GitHub\col-go-lo\excelPourBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>idStudent</t>
   </si>
@@ -45,16 +45,42 @@
   </si>
   <si>
     <t>stuAVSNumber</t>
+  </si>
+  <si>
+    <t>Itskua</t>
+  </si>
+  <si>
+    <t>Shido</t>
+  </si>
+  <si>
+    <t>itsuka.shido@raizen.educanet2.jp</t>
+  </si>
+  <si>
+    <t>756.1468.6123.24</t>
+  </si>
+  <si>
+    <t>Ch. de Praudri 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0##########"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +103,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,7 +404,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -402,7 +432,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>796541565</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/excelPourBD/t_student.xlsx
+++ b/excelPourBD/t_student.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>idStudent</t>
   </si>
@@ -59,7 +59,172 @@
     <t>756.1468.6123.24</t>
   </si>
   <si>
-    <t>Ch. de Praudri 14</t>
+    <t>Yugi</t>
+  </si>
+  <si>
+    <t>Muto</t>
+  </si>
+  <si>
+    <t>muto.yugi@domino.educanet2.jp</t>
+  </si>
+  <si>
+    <t>756.4668.3245.35</t>
+  </si>
+  <si>
+    <t>Dadié</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Ch. du Pontet 3, 1306 Daillens</t>
+  </si>
+  <si>
+    <t>Ch. de Praudri 5, 1306 Daillens</t>
+  </si>
+  <si>
+    <t>Av. de la harpe 40, 1007 Lausane</t>
+  </si>
+  <si>
+    <t>dadiesa@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.1654.1638.94</t>
+  </si>
+  <si>
+    <t>Antunes</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t>Rue du Grammont 14, 1815 Clarens</t>
+  </si>
+  <si>
+    <t>antunesfi@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.3794.1364.16</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Ch. Du chasselas 3, 1170 Aubonne</t>
+  </si>
+  <si>
+    <t>mayorjo@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.7649.1347.54</t>
+  </si>
+  <si>
+    <t>Bopp</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Rue de la Teinture 19, 1880 Bex</t>
+  </si>
+  <si>
+    <t>boppth@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.1673.1576.15</t>
+  </si>
+  <si>
+    <t>Campiche</t>
+  </si>
+  <si>
+    <t>Léandre</t>
+  </si>
+  <si>
+    <t>Av. de la harpe 25, 1007 Lausane</t>
+  </si>
+  <si>
+    <t>campichele@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.4618.6731.98</t>
+  </si>
+  <si>
+    <t>Carbonara</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Ch. Du Suchet 6, 1024 Ecublens</t>
+  </si>
+  <si>
+    <t>carbonarch@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.4618.9852.52</t>
+  </si>
+  <si>
+    <t>Corthésy</t>
+  </si>
+  <si>
+    <t>Romain</t>
+  </si>
+  <si>
+    <t>Ch. Du BourgDessus 28, 1088 Ropraz</t>
+  </si>
+  <si>
+    <t>corthesyro@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.3495.6425.98</t>
+  </si>
+  <si>
+    <t>Dind</t>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>Ch. Du Mirebert 8, 1047 Oppens</t>
+  </si>
+  <si>
+    <t>dindno@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.1437.5568.69</t>
+  </si>
+  <si>
+    <t>Groux</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Ch. De la Prairie 36, 1007 Lausanne</t>
+  </si>
+  <si>
+    <t>grouxma@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.3345.1111.55</t>
+  </si>
+  <si>
+    <t>Vogel</t>
+  </si>
+  <si>
+    <t>Maëlle</t>
+  </si>
+  <si>
+    <t>Ch. Du Verger 13, 1304 Cossonay</t>
+  </si>
+  <si>
+    <t>vogelma@etml.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.1999.2000.15</t>
   </si>
 </sst>
 </file>
@@ -67,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0##########"/>
+    <numFmt numFmtId="165" formatCode="0##\ ###\ ##\ ##"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -392,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,10 +568,10 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -443,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -454,12 +619,279 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>792543228</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>788218220</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>787091780</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>796929037</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>795222356</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2">
+        <v>799633425</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2">
+        <v>787313817</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>799430442</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>787699284</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>788295138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2">
+        <v>798241981</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
 </worksheet>
 </file>